--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV119-001 - Jenis Porto - Reksadana Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV119-001 - Jenis Porto - Reksadana Ubah Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9EB3FA-B2E0-4DB7-BA9C-C3BAE43FA797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDFBCB-6385-43C6-95C1-4CF16DB785E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,17 +97,17 @@
     <t>Edit dapat dilakukan dengan baik</t>
   </si>
   <si>
-    <t>Reksadana Campuran Syariah</t>
-  </si>
-  <si>
-    <t>R07</t>
-  </si>
-  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
 Kode Jenis Porto : R07;
 Nama Jenis Porto : Reksadana Campuran Syariah</t>
+  </si>
+  <si>
+    <t>R91</t>
+  </si>
+  <si>
+    <t>Reksadana Konvensional</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
@@ -620,7 +620,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="7"/>
